--- a/journal de bord/Journal de bord.xlsx
+++ b/journal de bord/Journal de bord.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>question avec mon chef de projet</t>
+  </si>
+  <si>
+    <t>question avec mon chef de projet sur la base de donnée et des maquettes</t>
   </si>
 </sst>
 </file>
@@ -162,21 +165,9 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,7 +177,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +473,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,903 +483,829 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="4">
         <v>43132</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="12">
+        <v>43144</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B102:E102"/>
@@ -1401,6 +1330,84 @@
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal de bord/Journal de bord.xlsx
+++ b/journal de bord/Journal de bord.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>question avec mon chef de projet sur la base de donnée et des maquettes</t>
+  </si>
+  <si>
+    <t>question avec M.ITHURBIDE sur comment faire les requets sql pour savoir si le produit est en stock ou louer</t>
   </si>
 </sst>
 </file>
@@ -162,12 +165,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,18 +194,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +482,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -483,735 +492,739 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43132</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="5">
         <v>43144</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43147</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
@@ -1306,6 +1319,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B102:E102"/>
@@ -1330,84 +1421,6 @@
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal de bord/Journal de bord.xlsx
+++ b/journal de bord/Journal de bord.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>question avec M.ITHURBIDE sur comment faire les requets sql pour savoir si le produit est en stock ou louer</t>
+  </si>
+  <si>
+    <t>discution avec le chef de projet sur le projet et l'avancement du project</t>
   </si>
 </sst>
 </file>
@@ -172,17 +175,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,10 +188,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +485,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,739 +495,743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43132</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43144</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="6">
         <v>43147</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="5">
+        <v>43165</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
@@ -1319,84 +1326,6 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B102:E102"/>
@@ -1421,6 +1350,84 @@
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal de bord/Journal de bord.xlsx
+++ b/journal de bord/Journal de bord.xlsx
@@ -50,7 +50,7 @@
     <t>question avec M.ITHURBIDE sur comment faire les requets sql pour savoir si le produit est en stock ou louer</t>
   </si>
   <si>
-    <t>discution avec le chef de projet sur le projet et l'avancement du project</t>
+    <t>discution avec le chef de projet sur le projet et l'avancement du projet</t>
   </si>
 </sst>
 </file>
@@ -178,6 +178,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -188,19 +200,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +485,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -495,45 +495,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43132</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -550,16 +550,16 @@
       <c r="A8" s="6">
         <v>43147</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>43165</v>
+        <v>43167</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -822,416 +822,416 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
@@ -1326,6 +1326,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B102:E102"/>
@@ -1350,84 +1428,6 @@
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
